--- a/midline/consumption_treatment/papers/Results_qualitative_data.xlsx
+++ b/midline/consumption_treatment/papers/Results_qualitative_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LNabwire\OneDrive - CGIAR\L.Nabwire\git\Maize_Uganda\mippi_UG\Qualitative_work\Qualitative_consultations\3_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/l_nabwire_cgiar_org/Documents/L.Nabwire/git/Maize_Uganda/mippi_UG/midline/consumption_treatment/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2500FF-E0EA-4CF0-AC2C-4A460EB48FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8E2500FF-E0EA-4CF0-AC2C-4A460EB48FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C6B9BD5-33CC-418C-B38B-18F0B792AE9A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3820" yWindow="3820" windowWidth="13150" windowHeight="6390" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q1" sheetId="14" r:id="rId1"/>
@@ -1561,7 +1561,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[3_Findings_Tables_&amp;_Graphs.xlsx]q1!PivotTable5</c:name>
+    <c:name>[Results_qualitative_data.xlsx]q1!PivotTable5</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2153,7 +2153,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[3_Findings_Tables_&amp;_Graphs.xlsx]q3!PivotTable1</c:name>
+    <c:name>[Results_qualitative_data.xlsx]q3!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2562,7 +2562,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[3_Findings_Tables_&amp;_Graphs.xlsx]q6!PivotTable1</c:name>
+    <c:name>[Results_qualitative_data.xlsx]q6!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2972,7 +2972,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[3_Findings_Tables_&amp;_Graphs.xlsx]q7!PivotTable12</c:name>
+    <c:name>[Results_qualitative_data.xlsx]q7!PivotTable12</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3354,7 +3354,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[3_Findings_Tables_&amp;_Graphs.xlsx]q8!PivotTable2</c:name>
+    <c:name>[Results_qualitative_data.xlsx]q8!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6472,16 +6472,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6554,16 +6554,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>409575</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>784225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2279650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8259,135 +8259,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7B56AD-6965-4F2A-A066-26CE81EAEFCC}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
-  <location ref="G3:H14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="12">
-        <item x="8"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="2" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Proportion (%) of responses" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="4">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43900DDE-4AE8-4A74-9C83-721BACE09DFD}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="J3:K22" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="4">
@@ -8512,6 +8383,135 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD7B56AD-6965-4F2A-A066-26CE81EAEFCC}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="G3:H14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="2" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Proportion (%) of responses" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -8915,7 +8915,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
@@ -10705,7 +10705,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A2" sqref="A2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12119,8 +12119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13525,7 +13525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFECC893-9DC8-4F98-A754-8DFA5B5BA96D}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
